--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H2">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I2">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J2">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N2">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P2">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q2">
-        <v>434.8530786612914</v>
+        <v>496.3014356140774</v>
       </c>
       <c r="R2">
-        <v>3913.677707951623</v>
+        <v>4466.712920526697</v>
       </c>
       <c r="S2">
-        <v>0.02180082253232787</v>
+        <v>0.02253220621360471</v>
       </c>
       <c r="T2">
-        <v>0.02180082253232786</v>
+        <v>0.02253220621360471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H3">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I3">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J3">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P3">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q3">
-        <v>92.01720167627144</v>
+        <v>105.0473526380258</v>
       </c>
       <c r="R3">
-        <v>828.154815086443</v>
+        <v>945.4261737422321</v>
       </c>
       <c r="S3">
-        <v>0.00461316886577302</v>
+        <v>0.004769175428446236</v>
       </c>
       <c r="T3">
-        <v>0.00461316886577302</v>
+        <v>0.004769175428446236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H4">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I4">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J4">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N4">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P4">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q4">
-        <v>14.12340895477867</v>
+        <v>19.32210127474666</v>
       </c>
       <c r="R4">
-        <v>127.110680593008</v>
+        <v>173.89891147272</v>
       </c>
       <c r="S4">
-        <v>0.0007080596810364215</v>
+        <v>0.0008772281100981713</v>
       </c>
       <c r="T4">
-        <v>0.0007080596810364213</v>
+        <v>0.0008772281100981712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H5">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I5">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J5">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N5">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O5">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P5">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q5">
-        <v>13.871507344774</v>
+        <v>16.15652565574133</v>
       </c>
       <c r="R5">
-        <v>124.843566102966</v>
+        <v>145.408730901672</v>
       </c>
       <c r="S5">
-        <v>0.0006954309046408958</v>
+        <v>0.0007335102049828384</v>
       </c>
       <c r="T5">
-        <v>0.0006954309046408955</v>
+        <v>0.0007335102049828383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J6">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N6">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P6">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q6">
-        <v>12429.54046497433</v>
+        <v>12426.30373322441</v>
       </c>
       <c r="R6">
-        <v>111865.8641847689</v>
+        <v>111836.7335990197</v>
       </c>
       <c r="S6">
-        <v>0.6231396743688598</v>
+        <v>0.564157219983582</v>
       </c>
       <c r="T6">
-        <v>0.6231396743688595</v>
+        <v>0.564157219983582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J7">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P7">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q7">
         <v>2630.156224787305</v>
@@ -883,10 +883,10 @@
         <v>23671.40602308574</v>
       </c>
       <c r="S7">
-        <v>0.1318596369730372</v>
+        <v>0.1194097340411212</v>
       </c>
       <c r="T7">
-        <v>0.1318596369730372</v>
+        <v>0.1194097340411212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J8">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N8">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P8">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q8">
-        <v>403.6937800859787</v>
+        <v>483.7832050738367</v>
       </c>
       <c r="R8">
-        <v>3633.244020773808</v>
+        <v>4354.04884566453</v>
       </c>
       <c r="S8">
-        <v>0.02023868954579492</v>
+        <v>0.02196387549416371</v>
       </c>
       <c r="T8">
-        <v>0.02023868954579491</v>
+        <v>0.02196387549416371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J9">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N9">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O9">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P9">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q9">
-        <v>396.493598212174</v>
+        <v>404.5241070549504</v>
       </c>
       <c r="R9">
-        <v>3568.442383909566</v>
+        <v>3640.716963494553</v>
       </c>
       <c r="S9">
-        <v>0.01987771731187505</v>
+        <v>0.01836549311460004</v>
       </c>
       <c r="T9">
-        <v>0.01987771731187504</v>
+        <v>0.01836549311460003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H10">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N10">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P10">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q10">
-        <v>2603.863046461738</v>
+        <v>4062.222275314281</v>
       </c>
       <c r="R10">
-        <v>23434.76741815565</v>
+        <v>36560.00047782854</v>
       </c>
       <c r="S10">
-        <v>0.1305414609209067</v>
+        <v>0.1844258819836541</v>
       </c>
       <c r="T10">
-        <v>0.1305414609209067</v>
+        <v>0.1844258819836541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H11">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P11">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q11">
-        <v>550.991134341918</v>
+        <v>859.8115282922605</v>
       </c>
       <c r="R11">
-        <v>4958.920209077263</v>
+        <v>7738.303754630345</v>
       </c>
       <c r="S11">
-        <v>0.02762326065082412</v>
+        <v>0.03903565307310652</v>
       </c>
       <c r="T11">
-        <v>0.02762326065082412</v>
+        <v>0.03903565307310652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H12">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N12">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P12">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q12">
-        <v>84.56976498965867</v>
+        <v>158.1512052388833</v>
       </c>
       <c r="R12">
-        <v>761.127884906928</v>
+        <v>1423.36084714995</v>
       </c>
       <c r="S12">
-        <v>0.004239800816901379</v>
+        <v>0.007180103287357011</v>
       </c>
       <c r="T12">
-        <v>0.004239800816901377</v>
+        <v>0.007180103287357011</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H13">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N13">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O13">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P13">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q13">
-        <v>83.06139969153399</v>
+        <v>132.2410005307217</v>
       </c>
       <c r="R13">
-        <v>747.5525972238059</v>
+        <v>1190.169004776495</v>
       </c>
       <c r="S13">
-        <v>0.004164180783855801</v>
+        <v>0.006003773674691973</v>
       </c>
       <c r="T13">
-        <v>0.004164180783855801</v>
+        <v>0.006003773674691973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H14">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I14">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J14">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>218.7785543333333</v>
+        <v>218.721583</v>
       </c>
       <c r="N14">
-        <v>656.3356630000001</v>
+        <v>656.164749</v>
       </c>
       <c r="O14">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="P14">
-        <v>0.7837094150017259</v>
+        <v>0.7793342808141792</v>
       </c>
       <c r="Q14">
-        <v>164.1100962503352</v>
+        <v>181.03366703327</v>
       </c>
       <c r="R14">
-        <v>1476.990866253017</v>
+        <v>1629.30300329943</v>
       </c>
       <c r="S14">
-        <v>0.008227457179631728</v>
+        <v>0.008218972633338461</v>
       </c>
       <c r="T14">
-        <v>0.008227457179631728</v>
+        <v>0.008218972633338461</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H15">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I15">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J15">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.884083</v>
       </c>
       <c r="O15">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="P15">
-        <v>0.1658370397602197</v>
+        <v>0.164954193449581</v>
       </c>
       <c r="Q15">
-        <v>34.72656068175522</v>
+        <v>38.31765555275666</v>
       </c>
       <c r="R15">
-        <v>312.539046135797</v>
+        <v>344.85889997481</v>
       </c>
       <c r="S15">
-        <v>0.001740973270585357</v>
+        <v>0.001739630906907051</v>
       </c>
       <c r="T15">
-        <v>0.001740973270585357</v>
+        <v>0.001739630906907051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H16">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I16">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J16">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.105616</v>
+        <v>8.515309999999999</v>
       </c>
       <c r="N16">
-        <v>21.316848</v>
+        <v>25.54593</v>
       </c>
       <c r="O16">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="P16">
-        <v>0.02545376614063513</v>
+        <v>0.03034118948727519</v>
       </c>
       <c r="Q16">
-        <v>5.330062305381333</v>
+        <v>7.048036933899999</v>
       </c>
       <c r="R16">
-        <v>47.970560748432</v>
+        <v>63.43233240509998</v>
       </c>
       <c r="S16">
-        <v>0.0002672160969024142</v>
+        <v>0.000319982595656293</v>
       </c>
       <c r="T16">
-        <v>0.0002672160969024141</v>
+        <v>0.000319982595656293</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H17">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I17">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J17">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.978882</v>
+        <v>7.120231</v>
       </c>
       <c r="N17">
-        <v>20.936646</v>
+        <v>21.360693</v>
       </c>
       <c r="O17">
-        <v>0.02499977909741928</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="P17">
-        <v>0.02499977909741927</v>
+        <v>0.02537033624896462</v>
       </c>
       <c r="Q17">
-        <v>5.234996639545999</v>
+        <v>5.89334399639</v>
       </c>
       <c r="R17">
-        <v>47.114969755914</v>
+        <v>53.04009596751</v>
       </c>
       <c r="S17">
-        <v>0.0002624500970475345</v>
+        <v>0.0002675592546897768</v>
       </c>
       <c r="T17">
-        <v>0.0002624500970475345</v>
+        <v>0.0002675592546897768</v>
       </c>
     </row>
   </sheetData>
